--- a/Lab/Lab3/Checklist-withFormula.xlsx
+++ b/Lab/Lab3/Checklist-withFormula.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nguyen Ngoc Thao\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\1_Workspace\HCMUS\DSA\Lab\Lab3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32D4B823-7F9A-4832-8DCE-133E4248184E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C04F7A48-0A95-4646-A649-8790F984AC88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{8CE66FDF-E979-4E9F-A8C3-831D61C41828}"/>
+    <workbookView xWindow="-108" yWindow="348" windowWidth="23256" windowHeight="12720" xr2:uid="{8CE66FDF-E979-4E9F-A8C3-831D61C41828}"/>
   </bookViews>
   <sheets>
     <sheet name="Students" sheetId="3" r:id="rId1"/>
@@ -316,6 +316,35 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -334,19 +363,10 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -354,26 +374,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -748,41 +748,42 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0D07BC3-C8CB-4F03-A421-F70981A8BB46}">
   <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.81640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.6328125" customWidth="1"/>
-    <col min="4" max="4" width="16.453125" customWidth="1"/>
-    <col min="5" max="5" width="23.453125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.26953125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.36328125" style="21" customWidth="1"/>
-    <col min="11" max="11" width="9.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.6640625" customWidth="1"/>
+    <col min="4" max="4" width="16.44140625" customWidth="1"/>
+    <col min="5" max="5" width="23.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.21875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.33203125" style="8" customWidth="1"/>
+    <col min="11" max="11" width="9.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A1" s="16" t="s">
+    <row r="1" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A1" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="11"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="22"/>
       <c r="G1" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="H1" s="16"/>
-    </row>
-    <row r="2" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="15" t="s">
+      <c r="H1" s="25"/>
+    </row>
+    <row r="2" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="15"/>
+      <c r="B2" s="26"/>
       <c r="C2" s="2" t="s">
         <v>0</v>
       </c>
@@ -792,452 +793,442 @@
       <c r="E2" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="11"/>
+      <c r="F2" s="22"/>
       <c r="G2" s="6" t="s">
         <v>30</v>
       </c>
       <c r="H2" s="1">
-        <v>5678</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="8" t="s">
+        <v>21127337</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="8"/>
+      <c r="B3" s="19"/>
       <c r="C3" s="1">
-        <v>1234</v>
+        <v>21127584</v>
       </c>
       <c r="D3" s="1">
-        <v>1234</v>
+        <v>21127584</v>
       </c>
       <c r="E3" s="1">
-        <v>1234</v>
-      </c>
-      <c r="F3" s="11"/>
+        <v>21127584</v>
+      </c>
+      <c r="F3" s="22"/>
       <c r="G3" s="6" t="s">
         <v>31</v>
       </c>
       <c r="H3" s="1">
-        <v>5678</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="8" t="s">
+        <v>21127337</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="8"/>
+      <c r="B4" s="19"/>
       <c r="C4" s="1">
-        <v>1234</v>
+        <v>21127584</v>
       </c>
       <c r="D4" s="1">
-        <v>1234</v>
+        <v>21127584</v>
       </c>
       <c r="E4" s="1">
-        <v>1234</v>
-      </c>
-      <c r="F4" s="11"/>
+        <v>21127584</v>
+      </c>
+      <c r="F4" s="22"/>
       <c r="G4" s="6" t="s">
         <v>32</v>
       </c>
       <c r="H4" s="1">
-        <v>5678</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="8" t="s">
+        <v>21127337</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A5" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="8"/>
+      <c r="B5" s="19"/>
       <c r="C5" s="1">
-        <v>1234</v>
+        <v>21127584</v>
       </c>
       <c r="D5" s="1">
-        <v>1234</v>
+        <v>21127584</v>
       </c>
       <c r="E5" s="1">
-        <v>1234</v>
-      </c>
-      <c r="F5" s="11"/>
+        <v>21127584</v>
+      </c>
+      <c r="F5" s="22"/>
       <c r="G5" s="6" t="s">
         <v>33</v>
       </c>
       <c r="H5" s="1">
-        <v>5678</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="8"/>
+        <v>21127337</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A6" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="19"/>
       <c r="C6" s="1">
-        <v>1234</v>
+        <v>21127337</v>
       </c>
       <c r="D6" s="1">
-        <v>1234</v>
+        <v>21127337</v>
       </c>
       <c r="E6" s="1">
-        <v>1234</v>
-      </c>
-      <c r="F6" s="11"/>
+        <v>21127337</v>
+      </c>
+      <c r="F6" s="22"/>
       <c r="G6" s="6" t="s">
         <v>34</v>
       </c>
       <c r="H6" s="1">
-        <v>5678</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="8" t="s">
+        <v>21127337</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="8"/>
+      <c r="B7" s="19"/>
       <c r="C7" s="1">
-        <v>1234</v>
+        <v>21127337</v>
       </c>
       <c r="D7" s="1">
-        <v>1234</v>
+        <v>21127337</v>
       </c>
       <c r="E7" s="1">
-        <v>1234</v>
-      </c>
-      <c r="F7" s="11"/>
-      <c r="G7" s="19"/>
-      <c r="H7" s="20"/>
-    </row>
-    <row r="8" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="8" t="s">
+        <v>21127337</v>
+      </c>
+      <c r="F7" s="22"/>
+      <c r="G7" s="27"/>
+      <c r="H7" s="28"/>
+    </row>
+    <row r="8" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A8" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="8"/>
+      <c r="B8" s="19"/>
       <c r="C8" s="1">
-        <v>1234</v>
+        <v>21127337</v>
       </c>
       <c r="D8" s="1">
-        <v>1234</v>
+        <v>21127337</v>
       </c>
       <c r="E8" s="1">
-        <v>1234</v>
-      </c>
-      <c r="F8" s="11"/>
+        <v>21127337</v>
+      </c>
+      <c r="F8" s="22"/>
       <c r="G8" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="H8" s="16"/>
-    </row>
-    <row r="9" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="8" t="s">
+      <c r="H8" s="25"/>
+    </row>
+    <row r="9" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A9" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="8"/>
+      <c r="B9" s="19"/>
       <c r="C9" s="1">
-        <v>1234</v>
+        <v>21127353</v>
       </c>
       <c r="D9" s="1">
-        <v>1234</v>
+        <v>21127353</v>
       </c>
       <c r="E9" s="1">
-        <v>1234</v>
-      </c>
-      <c r="F9" s="11"/>
+        <v>21127353</v>
+      </c>
+      <c r="F9" s="22"/>
       <c r="G9" s="7" t="s">
         <v>14</v>
       </c>
       <c r="H9" s="1">
-        <v>4321</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="8" t="s">
+        <v>21127584</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A10" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="8"/>
+      <c r="B10" s="19"/>
       <c r="C10" s="1">
-        <v>1234</v>
+        <v>21127353</v>
       </c>
       <c r="D10" s="1">
-        <v>1234</v>
+        <v>21127353</v>
       </c>
       <c r="E10" s="1">
-        <v>1234</v>
-      </c>
-      <c r="F10" s="11"/>
+        <v>21127353</v>
+      </c>
+      <c r="F10" s="22"/>
       <c r="G10" s="7" t="s">
         <v>15</v>
       </c>
       <c r="H10" s="1">
-        <v>4321</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" s="8"/>
+        <v>21127584</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A11" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="19"/>
       <c r="C11" s="1">
-        <v>1234</v>
+        <v>21127353</v>
       </c>
       <c r="D11" s="1">
-        <v>1234</v>
+        <v>21127353</v>
       </c>
       <c r="E11" s="1">
-        <v>1234</v>
-      </c>
-      <c r="F11" s="11"/>
+        <v>21127353</v>
+      </c>
+      <c r="F11" s="22"/>
       <c r="G11" s="7" t="s">
         <v>25</v>
       </c>
       <c r="H11" s="1">
-        <v>4321</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="8" t="s">
+        <v>21127584</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A12" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="8"/>
+      <c r="B12" s="19"/>
       <c r="C12" s="1">
-        <v>1234</v>
+        <v>20127169</v>
       </c>
       <c r="D12" s="1">
-        <v>1234</v>
+        <v>20127169</v>
       </c>
       <c r="E12" s="1">
-        <v>1234</v>
-      </c>
-      <c r="F12" s="11"/>
+        <v>20127169</v>
+      </c>
+      <c r="F12" s="22"/>
       <c r="G12" s="7" t="s">
         <v>26</v>
       </c>
       <c r="H12" s="1">
-        <v>4321</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A13" s="8" t="s">
+        <v>20127169</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A13" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="8"/>
+      <c r="B13" s="19"/>
       <c r="C13" s="1">
-        <v>1234</v>
+        <v>20127169</v>
       </c>
       <c r="D13" s="1">
-        <v>1234</v>
+        <v>20127169</v>
       </c>
       <c r="E13" s="1">
-        <v>1234</v>
-      </c>
-      <c r="F13" s="11"/>
+        <v>20127169</v>
+      </c>
+      <c r="F13" s="22"/>
       <c r="G13" s="7" t="s">
         <v>27</v>
       </c>
       <c r="H13" s="1">
-        <v>4321</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A14" s="9"/>
-      <c r="B14" s="10"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="11"/>
-      <c r="G14" s="12"/>
-      <c r="H14" s="13"/>
-    </row>
-    <row r="15" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A15" s="17" t="s">
+        <v>20127169</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A14" s="20"/>
+      <c r="B14" s="21"/>
+      <c r="C14" s="21"/>
+      <c r="D14" s="21"/>
+      <c r="E14" s="21"/>
+      <c r="F14" s="22"/>
+      <c r="G14" s="23"/>
+      <c r="H14" s="24"/>
+    </row>
+    <row r="15" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A15" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="26"/>
-      <c r="C15" s="26"/>
+      <c r="B15" s="17"/>
+      <c r="C15" s="17"/>
       <c r="D15" s="18"/>
-      <c r="E15" s="21"/>
+      <c r="E15" s="8"/>
       <c r="J15"/>
     </row>
-    <row r="16" spans="1:10" ht="31" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:10" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
-      <c r="C16" s="27" t="s">
+      <c r="C16" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="D16" s="27" t="s">
+      <c r="D16" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="E16" s="21"/>
+      <c r="E16" s="8"/>
       <c r="J16"/>
     </row>
-    <row r="17" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A17" s="14" t="s">
+    <row r="17" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A17" s="15" t="s">
         <v>0</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C17" s="25">
-        <v>8765</v>
-      </c>
-      <c r="D17" s="25">
-        <v>8765</v>
-      </c>
-      <c r="E17" s="21"/>
+      <c r="C17" s="12">
+        <v>21127584</v>
+      </c>
+      <c r="D17" s="12">
+        <v>21127353</v>
+      </c>
+      <c r="E17" s="8"/>
       <c r="J17"/>
     </row>
-    <row r="18" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A18" s="14"/>
+    <row r="18" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A18" s="15"/>
       <c r="B18" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C18" s="25">
-        <v>8765</v>
-      </c>
-      <c r="D18" s="25">
-        <v>8765</v>
-      </c>
-      <c r="E18" s="21"/>
+      <c r="C18" s="12">
+        <v>21127584</v>
+      </c>
+      <c r="D18" s="12">
+        <v>21127353</v>
+      </c>
+      <c r="E18" s="8"/>
       <c r="J18"/>
     </row>
-    <row r="19" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A19" s="14"/>
+    <row r="19" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A19" s="15"/>
       <c r="B19" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C19" s="25">
-        <v>8765</v>
-      </c>
-      <c r="D19" s="25">
-        <v>8765</v>
-      </c>
-      <c r="E19" s="21"/>
+      <c r="C19" s="12">
+        <v>21127584</v>
+      </c>
+      <c r="D19" s="12">
+        <v>21127353</v>
+      </c>
+      <c r="E19" s="8"/>
       <c r="J19"/>
     </row>
-    <row r="20" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A20" s="14"/>
+    <row r="20" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A20" s="15"/>
       <c r="B20" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C20" s="25">
-        <v>8765</v>
-      </c>
-      <c r="D20" s="25">
-        <v>8765</v>
-      </c>
-      <c r="E20" s="21"/>
+      <c r="C20" s="12">
+        <v>21127584</v>
+      </c>
+      <c r="D20" s="12">
+        <v>21127353</v>
+      </c>
+      <c r="E20" s="8"/>
       <c r="J20"/>
     </row>
-    <row r="21" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A21" s="14" t="s">
+    <row r="21" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A21" s="15" t="s">
         <v>1</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C21" s="25">
-        <v>8765</v>
-      </c>
-      <c r="D21" s="25">
-        <v>8765</v>
-      </c>
-      <c r="E21" s="21"/>
+      <c r="C21" s="12">
+        <v>20127169</v>
+      </c>
+      <c r="D21" s="12">
+        <v>21127584</v>
+      </c>
+      <c r="E21" s="8"/>
       <c r="J21"/>
     </row>
-    <row r="22" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A22" s="14"/>
+    <row r="22" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A22" s="15"/>
       <c r="B22" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C22" s="25">
-        <v>8765</v>
-      </c>
-      <c r="D22" s="25">
-        <v>8765</v>
-      </c>
-      <c r="E22" s="21"/>
+      <c r="C22" s="12">
+        <v>20127169</v>
+      </c>
+      <c r="D22" s="12">
+        <v>21127353</v>
+      </c>
+      <c r="E22" s="8"/>
       <c r="J22"/>
     </row>
-    <row r="23" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A23" s="14"/>
+    <row r="23" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A23" s="15"/>
       <c r="B23" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C23" s="25">
-        <v>8765</v>
-      </c>
-      <c r="D23" s="25">
-        <v>8765</v>
-      </c>
-      <c r="E23" s="21"/>
+      <c r="C23" s="12">
+        <v>20127169</v>
+      </c>
+      <c r="D23" s="12">
+        <v>20127169</v>
+      </c>
+      <c r="E23" s="8"/>
       <c r="J23"/>
     </row>
-    <row r="24" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A24" s="14"/>
+    <row r="24" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A24" s="15"/>
       <c r="B24" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C24" s="25">
-        <v>8765</v>
-      </c>
-      <c r="D24" s="25">
-        <v>8765</v>
-      </c>
-      <c r="E24" s="21"/>
+      <c r="C24" s="12">
+        <v>20127169</v>
+      </c>
+      <c r="D24" s="12">
+        <v>20127169</v>
+      </c>
+      <c r="E24" s="8"/>
       <c r="J24"/>
     </row>
-    <row r="27" spans="1:10" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="B27" s="23" t="s">
+    <row r="27" spans="1:10" ht="18" x14ac:dyDescent="0.35">
+      <c r="B27" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="I27" s="21"/>
+      <c r="I27" s="8"/>
       <c r="J27"/>
     </row>
-    <row r="28" spans="1:10" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="B28" s="22">
-        <v>1234</v>
-      </c>
-      <c r="C28" s="24" t="s">
+    <row r="28" spans="1:10" ht="18" x14ac:dyDescent="0.35">
+      <c r="B28" s="9">
+        <v>21127337</v>
+      </c>
+      <c r="C28" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="I28" s="21"/>
+      <c r="I28" s="8"/>
       <c r="J28"/>
     </row>
-    <row r="29" spans="1:10" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="B29" s="22">
-        <v>5678</v>
-      </c>
-      <c r="I29" s="21"/>
+    <row r="29" spans="1:10" ht="18" x14ac:dyDescent="0.35">
+      <c r="B29" s="9">
+        <v>21127584</v>
+      </c>
+      <c r="I29" s="8"/>
       <c r="J29"/>
     </row>
-    <row r="30" spans="1:10" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="B30" s="22">
-        <v>4321</v>
-      </c>
-      <c r="I30" s="21"/>
+    <row r="30" spans="1:10" ht="18" x14ac:dyDescent="0.35">
+      <c r="B30" s="9">
+        <v>21127353</v>
+      </c>
+      <c r="I30" s="8"/>
       <c r="J30"/>
     </row>
-    <row r="31" spans="1:10" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="B31" s="22">
-        <v>8765</v>
-      </c>
-      <c r="I31" s="21"/>
+    <row r="31" spans="1:10" ht="18" x14ac:dyDescent="0.35">
+      <c r="B31" s="9">
+        <v>20127169</v>
+      </c>
+      <c r="I31" s="8"/>
       <c r="J31"/>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="I32" s="21"/>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I32" s="8"/>
       <c r="J32"/>
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="A21:A24"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A17:A20"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:H14"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
     <mergeCell ref="A12:B12"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="F1:F13"/>
@@ -1249,6 +1240,16 @@
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="A7:B7"/>
     <mergeCell ref="G7:H7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A21:A24"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A17:A20"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A14:H14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1258,39 +1259,39 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9F7E3AF-06FB-492B-ABC3-48C15B5C1CC2}">
   <dimension ref="A1:H30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.81640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.7265625" customWidth="1"/>
-    <col min="4" max="4" width="16.453125" customWidth="1"/>
-    <col min="5" max="5" width="23.453125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.77734375" customWidth="1"/>
+    <col min="4" max="4" width="16.44140625" customWidth="1"/>
+    <col min="5" max="5" width="23.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A1" s="16" t="s">
+    <row r="1" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A1" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="11"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="22"/>
       <c r="G1" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="H1" s="16"/>
-    </row>
-    <row r="2" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="15" t="s">
+      <c r="H1" s="25"/>
+    </row>
+    <row r="2" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="15"/>
+      <c r="B2" s="26"/>
       <c r="C2" s="2" t="s">
         <v>0</v>
       </c>
@@ -1300,7 +1301,7 @@
       <c r="E2" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="11"/>
+      <c r="F2" s="22"/>
       <c r="G2" s="6" t="s">
         <v>30</v>
       </c>
@@ -1308,11 +1309,11 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="8" t="s">
+    <row r="3" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="8"/>
+      <c r="B3" s="19"/>
       <c r="C3" s="1">
         <v>5</v>
       </c>
@@ -1322,7 +1323,7 @@
       <c r="E3" s="1">
         <v>10</v>
       </c>
-      <c r="F3" s="11"/>
+      <c r="F3" s="22"/>
       <c r="G3" s="6" t="s">
         <v>31</v>
       </c>
@@ -1330,11 +1331,11 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="8" t="s">
+    <row r="4" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="8"/>
+      <c r="B4" s="19"/>
       <c r="C4" s="1">
         <v>5</v>
       </c>
@@ -1344,7 +1345,7 @@
       <c r="E4" s="1">
         <v>10</v>
       </c>
-      <c r="F4" s="11"/>
+      <c r="F4" s="22"/>
       <c r="G4" s="6" t="s">
         <v>32</v>
       </c>
@@ -1352,11 +1353,11 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="8" t="s">
+    <row r="5" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A5" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="8"/>
+      <c r="B5" s="19"/>
       <c r="C5" s="1">
         <v>5</v>
       </c>
@@ -1366,7 +1367,7 @@
       <c r="E5" s="1">
         <v>10</v>
       </c>
-      <c r="F5" s="11"/>
+      <c r="F5" s="22"/>
       <c r="G5" s="6" t="s">
         <v>33</v>
       </c>
@@ -1374,11 +1375,11 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="8"/>
+    <row r="6" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A6" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="19"/>
       <c r="C6" s="1">
         <v>5</v>
       </c>
@@ -1388,7 +1389,7 @@
       <c r="E6" s="1">
         <v>10</v>
       </c>
-      <c r="F6" s="11"/>
+      <c r="F6" s="22"/>
       <c r="G6" s="6" t="s">
         <v>34</v>
       </c>
@@ -1396,11 +1397,11 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="8" t="s">
+    <row r="7" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="8"/>
+      <c r="B7" s="19"/>
       <c r="C7" s="1">
         <v>5</v>
       </c>
@@ -1410,15 +1411,15 @@
       <c r="E7" s="1">
         <v>10</v>
       </c>
-      <c r="F7" s="11"/>
-      <c r="G7" s="19"/>
-      <c r="H7" s="20"/>
-    </row>
-    <row r="8" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="8" t="s">
+      <c r="F7" s="22"/>
+      <c r="G7" s="27"/>
+      <c r="H7" s="28"/>
+    </row>
+    <row r="8" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A8" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="8"/>
+      <c r="B8" s="19"/>
       <c r="C8" s="1">
         <v>5</v>
       </c>
@@ -1428,17 +1429,17 @@
       <c r="E8" s="1">
         <v>10</v>
       </c>
-      <c r="F8" s="11"/>
+      <c r="F8" s="22"/>
       <c r="G8" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="H8" s="16"/>
-    </row>
-    <row r="9" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="8" t="s">
+      <c r="H8" s="25"/>
+    </row>
+    <row r="9" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A9" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="8"/>
+      <c r="B9" s="19"/>
       <c r="C9" s="1">
         <v>5</v>
       </c>
@@ -1448,7 +1449,7 @@
       <c r="E9" s="1">
         <v>10</v>
       </c>
-      <c r="F9" s="11"/>
+      <c r="F9" s="22"/>
       <c r="G9" s="7" t="s">
         <v>14</v>
       </c>
@@ -1456,11 +1457,11 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="8" t="s">
+    <row r="10" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A10" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="8"/>
+      <c r="B10" s="19"/>
       <c r="C10" s="1">
         <v>5</v>
       </c>
@@ -1470,7 +1471,7 @@
       <c r="E10" s="1">
         <v>10</v>
       </c>
-      <c r="F10" s="11"/>
+      <c r="F10" s="22"/>
       <c r="G10" s="7" t="s">
         <v>15</v>
       </c>
@@ -1478,11 +1479,11 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" s="8"/>
+    <row r="11" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A11" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="19"/>
       <c r="C11" s="1">
         <v>5</v>
       </c>
@@ -1492,7 +1493,7 @@
       <c r="E11" s="1">
         <v>10</v>
       </c>
-      <c r="F11" s="11"/>
+      <c r="F11" s="22"/>
       <c r="G11" s="7" t="s">
         <v>25</v>
       </c>
@@ -1500,11 +1501,11 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="8" t="s">
+    <row r="12" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A12" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="8"/>
+      <c r="B12" s="19"/>
       <c r="C12" s="1">
         <v>5</v>
       </c>
@@ -1514,7 +1515,7 @@
       <c r="E12" s="1">
         <v>10</v>
       </c>
-      <c r="F12" s="11"/>
+      <c r="F12" s="22"/>
       <c r="G12" s="7" t="s">
         <v>26</v>
       </c>
@@ -1522,11 +1523,11 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A13" s="8" t="s">
+    <row r="13" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A13" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="8"/>
+      <c r="B13" s="19"/>
       <c r="C13" s="1">
         <v>5</v>
       </c>
@@ -1536,7 +1537,7 @@
       <c r="E13" s="1">
         <v>10</v>
       </c>
-      <c r="F13" s="11"/>
+      <c r="F13" s="22"/>
       <c r="G13" s="7" t="s">
         <v>27</v>
       </c>
@@ -1544,36 +1545,36 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A14" s="9"/>
-      <c r="B14" s="10"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="11"/>
-      <c r="G14" s="12"/>
-      <c r="H14" s="13"/>
-    </row>
-    <row r="15" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A15" s="17" t="s">
+    <row r="14" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A14" s="20"/>
+      <c r="B14" s="21"/>
+      <c r="C14" s="21"/>
+      <c r="D14" s="21"/>
+      <c r="E14" s="21"/>
+      <c r="F14" s="22"/>
+      <c r="G14" s="23"/>
+      <c r="H14" s="24"/>
+    </row>
+    <row r="15" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A15" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="26"/>
-      <c r="C15" s="26"/>
+      <c r="B15" s="17"/>
+      <c r="C15" s="17"/>
       <c r="D15" s="18"/>
     </row>
-    <row r="16" spans="1:8" ht="31" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
-      <c r="C16" s="27" t="s">
+      <c r="C16" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="D16" s="27" t="s">
+      <c r="D16" s="13" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A17" s="14" t="s">
+    <row r="17" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A17" s="15" t="s">
         <v>0</v>
       </c>
       <c r="B17" s="1" t="s">
@@ -1586,8 +1587,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A18" s="14"/>
+    <row r="18" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A18" s="15"/>
       <c r="B18" s="1" t="s">
         <v>20</v>
       </c>
@@ -1598,8 +1599,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A19" s="14"/>
+    <row r="19" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A19" s="15"/>
       <c r="B19" s="1" t="s">
         <v>23</v>
       </c>
@@ -1610,8 +1611,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A20" s="14"/>
+    <row r="20" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A20" s="15"/>
       <c r="B20" s="1" t="s">
         <v>24</v>
       </c>
@@ -1622,8 +1623,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A21" s="14" t="s">
+    <row r="21" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A21" s="15" t="s">
         <v>1</v>
       </c>
       <c r="B21" s="1" t="s">
@@ -1636,8 +1637,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A22" s="14"/>
+    <row r="22" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A22" s="15"/>
       <c r="B22" s="1" t="s">
         <v>20</v>
       </c>
@@ -1648,8 +1649,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A23" s="14"/>
+    <row r="23" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A23" s="15"/>
       <c r="B23" s="1" t="s">
         <v>23</v>
       </c>
@@ -1660,8 +1661,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A24" s="14"/>
+    <row r="24" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A24" s="15"/>
       <c r="B24" s="1" t="s">
         <v>24</v>
       </c>
@@ -1672,66 +1673,56 @@
         <v>10</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A26" s="23" t="s">
+    <row r="26" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+      <c r="A26" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="B26" s="23" t="s">
+      <c r="B26" s="10" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A27" s="23">
+    <row r="27" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+      <c r="A27" s="10">
         <f>Students!B28</f>
-        <v>1234</v>
-      </c>
-      <c r="B27" s="23">
+        <v>21127337</v>
+      </c>
+      <c r="B27" s="10">
         <f>SUMIFS($C$3:$E$13,Students!$C$3:$E$13,Grader!$A27)+SUMIFS($H$2:$H$6,Students!$H$2:$H$6,Grader!$A27)+SUMIFS($H$9:$H$13,Students!$H$9:$H$13,Grader!$A27)+SUMIFS($C$17:$D$24,Students!$C$17:$D$24,Grader!$A27)</f>
-        <v>220</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A28" s="23">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+      <c r="A28" s="10">
         <f>Students!B29</f>
-        <v>5678</v>
-      </c>
-      <c r="B28" s="23">
+        <v>21127584</v>
+      </c>
+      <c r="B28" s="10">
         <f>SUMIFS($C$3:$E$13,Students!$C$3:$E$13,Grader!$A28)+SUMIFS($H$2:$H$6,Students!$H$2:$H$6,Grader!$A28)+SUMIFS($H$9:$H$13,Students!$H$9:$H$13,Grader!$A28)+SUMIFS($C$17:$D$24,Students!$C$17:$D$24,Grader!$A28)</f>
-        <v>75</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A29" s="23">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+      <c r="A29" s="10">
         <f>Students!B30</f>
-        <v>4321</v>
-      </c>
-      <c r="B29" s="23">
+        <v>21127353</v>
+      </c>
+      <c r="B29" s="10">
         <f>SUMIFS($C$3:$E$13,Students!$C$3:$E$13,Grader!$A29)+SUMIFS($H$2:$H$6,Students!$H$2:$H$6,Grader!$A29)+SUMIFS($H$9:$H$13,Students!$H$9:$H$13,Grader!$A29)+SUMIFS($C$17:$D$24,Students!$C$17:$D$24,Grader!$A29)</f>
-        <v>25</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A30" s="23">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+      <c r="A30" s="10">
         <f>Students!B31</f>
-        <v>8765</v>
-      </c>
-      <c r="B30" s="23">
+        <v>20127169</v>
+      </c>
+      <c r="B30" s="10">
         <f>SUMIFS($C$3:$E$13,Students!$C$3:$E$13,Grader!$A30)+SUMIFS($H$2:$H$6,Students!$H$2:$H$6,Grader!$A30)+SUMIFS($H$9:$H$13,Students!$H$9:$H$13,Grader!$A30)+SUMIFS($C$17:$D$24,Students!$C$17:$D$24,Grader!$A30)</f>
-        <v>160</v>
+        <v>110</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="A21:A24"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A17:A20"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:H14"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
     <mergeCell ref="A12:B12"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="F1:F13"/>
@@ -1743,6 +1734,16 @@
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="A7:B7"/>
     <mergeCell ref="G7:H7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A21:A24"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A17:A20"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A14:H14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
@@ -1850,39 +1851,39 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83BB2285-79C2-4582-B649-19B1BF8CE13D}">
   <dimension ref="A1:H24"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.81640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.6328125" customWidth="1"/>
-    <col min="4" max="4" width="16.453125" customWidth="1"/>
-    <col min="5" max="5" width="23.453125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.6640625" customWidth="1"/>
+    <col min="4" max="4" width="16.44140625" customWidth="1"/>
+    <col min="5" max="5" width="23.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A1" s="16" t="s">
+    <row r="1" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A1" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="11"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="22"/>
       <c r="G1" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="H1" s="16"/>
-    </row>
-    <row r="2" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="15" t="s">
+      <c r="H1" s="25"/>
+    </row>
+    <row r="2" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="15"/>
+      <c r="B2" s="26"/>
       <c r="C2" s="2" t="s">
         <v>0</v>
       </c>
@@ -1892,19 +1893,19 @@
       <c r="E2" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="11"/>
+      <c r="F2" s="22"/>
       <c r="G2" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="H2" s="28">
+      <c r="H2" s="14">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="8" t="s">
+    <row r="3" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="8"/>
+      <c r="B3" s="19"/>
       <c r="C3" s="1">
         <v>5</v>
       </c>
@@ -1914,19 +1915,19 @@
       <c r="E3" s="3">
         <v>10</v>
       </c>
-      <c r="F3" s="11"/>
+      <c r="F3" s="22"/>
       <c r="G3" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="H3" s="28">
+      <c r="H3" s="14">
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="8" t="s">
+    <row r="4" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="8"/>
+      <c r="B4" s="19"/>
       <c r="C4" s="1">
         <v>5</v>
       </c>
@@ -1936,19 +1937,19 @@
       <c r="E4" s="3">
         <v>10</v>
       </c>
-      <c r="F4" s="11"/>
+      <c r="F4" s="22"/>
       <c r="G4" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="H4" s="28">
+      <c r="H4" s="14">
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="8" t="s">
+    <row r="5" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A5" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="8"/>
+      <c r="B5" s="19"/>
       <c r="C5" s="1">
         <v>5</v>
       </c>
@@ -1958,19 +1959,19 @@
       <c r="E5" s="3">
         <v>10</v>
       </c>
-      <c r="F5" s="11"/>
+      <c r="F5" s="22"/>
       <c r="G5" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="H5" s="28">
+      <c r="H5" s="14">
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="8"/>
+    <row r="6" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A6" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="19"/>
       <c r="C6" s="1">
         <v>5</v>
       </c>
@@ -1980,19 +1981,19 @@
       <c r="E6" s="3">
         <v>10</v>
       </c>
-      <c r="F6" s="11"/>
+      <c r="F6" s="22"/>
       <c r="G6" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="H6" s="28">
+      <c r="H6" s="14">
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="8" t="s">
+    <row r="7" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="8"/>
+      <c r="B7" s="19"/>
       <c r="C7" s="1">
         <v>5</v>
       </c>
@@ -2002,15 +2003,15 @@
       <c r="E7" s="3">
         <v>10</v>
       </c>
-      <c r="F7" s="11"/>
-      <c r="G7" s="19"/>
-      <c r="H7" s="20"/>
-    </row>
-    <row r="8" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="8" t="s">
+      <c r="F7" s="22"/>
+      <c r="G7" s="27"/>
+      <c r="H7" s="28"/>
+    </row>
+    <row r="8" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A8" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="8"/>
+      <c r="B8" s="19"/>
       <c r="C8" s="1">
         <v>5</v>
       </c>
@@ -2020,17 +2021,17 @@
       <c r="E8" s="3">
         <v>10</v>
       </c>
-      <c r="F8" s="11"/>
+      <c r="F8" s="22"/>
       <c r="G8" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="H8" s="16"/>
-    </row>
-    <row r="9" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="8" t="s">
+      <c r="H8" s="25"/>
+    </row>
+    <row r="9" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A9" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="8"/>
+      <c r="B9" s="19"/>
       <c r="C9" s="1">
         <v>5</v>
       </c>
@@ -2040,7 +2041,7 @@
       <c r="E9" s="3">
         <v>10</v>
       </c>
-      <c r="F9" s="11"/>
+      <c r="F9" s="22"/>
       <c r="G9" s="7" t="s">
         <v>14</v>
       </c>
@@ -2048,11 +2049,11 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="8" t="s">
+    <row r="10" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A10" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="8"/>
+      <c r="B10" s="19"/>
       <c r="C10" s="1">
         <v>5</v>
       </c>
@@ -2062,7 +2063,7 @@
       <c r="E10" s="3">
         <v>10</v>
       </c>
-      <c r="F10" s="11"/>
+      <c r="F10" s="22"/>
       <c r="G10" s="7" t="s">
         <v>15</v>
       </c>
@@ -2070,11 +2071,11 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" s="8"/>
+    <row r="11" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A11" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="19"/>
       <c r="C11" s="1">
         <v>5</v>
       </c>
@@ -2084,7 +2085,7 @@
       <c r="E11" s="3">
         <v>10</v>
       </c>
-      <c r="F11" s="11"/>
+      <c r="F11" s="22"/>
       <c r="G11" s="7" t="s">
         <v>25</v>
       </c>
@@ -2092,11 +2093,11 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="8" t="s">
+    <row r="12" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A12" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="8"/>
+      <c r="B12" s="19"/>
       <c r="C12" s="1">
         <v>5</v>
       </c>
@@ -2106,7 +2107,7 @@
       <c r="E12" s="3">
         <v>10</v>
       </c>
-      <c r="F12" s="11"/>
+      <c r="F12" s="22"/>
       <c r="G12" s="7" t="s">
         <v>26</v>
       </c>
@@ -2114,11 +2115,11 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A13" s="8" t="s">
+    <row r="13" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A13" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="8"/>
+      <c r="B13" s="19"/>
       <c r="C13" s="1">
         <v>5</v>
       </c>
@@ -2128,7 +2129,7 @@
       <c r="E13" s="3">
         <v>10</v>
       </c>
-      <c r="F13" s="11"/>
+      <c r="F13" s="22"/>
       <c r="G13" s="7" t="s">
         <v>27</v>
       </c>
@@ -2136,49 +2137,49 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A14" s="9"/>
-      <c r="B14" s="10"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="11"/>
-      <c r="G14" s="12"/>
-      <c r="H14" s="13"/>
-    </row>
-    <row r="15" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A15" s="17" t="s">
+    <row r="14" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A14" s="20"/>
+      <c r="B14" s="21"/>
+      <c r="C14" s="21"/>
+      <c r="D14" s="21"/>
+      <c r="E14" s="21"/>
+      <c r="F14" s="22"/>
+      <c r="G14" s="23"/>
+      <c r="H14" s="24"/>
+    </row>
+    <row r="15" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A15" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="26"/>
-      <c r="C15" s="26"/>
+      <c r="B15" s="17"/>
+      <c r="C15" s="17"/>
       <c r="D15" s="18"/>
       <c r="E15" s="4"/>
       <c r="F15" s="4"/>
       <c r="G15" s="4"/>
       <c r="H15" s="4"/>
     </row>
-    <row r="16" spans="1:8" ht="31" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
-      <c r="C16" s="27" t="s">
+      <c r="C16" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="D16" s="27" t="s">
+      <c r="D16" s="13" t="s">
         <v>19</v>
       </c>
       <c r="E16" s="4"/>
       <c r="F16" s="4"/>
       <c r="G16" s="4"/>
     </row>
-    <row r="17" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A17" s="14" t="s">
+    <row r="17" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A17" s="15" t="s">
         <v>0</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C17" s="25">
+      <c r="C17" s="12">
         <v>10</v>
       </c>
       <c r="D17" s="1">
@@ -2188,12 +2189,12 @@
       <c r="F17" s="4"/>
       <c r="G17" s="4"/>
     </row>
-    <row r="18" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A18" s="14"/>
+    <row r="18" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A18" s="15"/>
       <c r="B18" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C18" s="25">
+      <c r="C18" s="12">
         <v>10</v>
       </c>
       <c r="D18" s="1">
@@ -2203,12 +2204,12 @@
       <c r="F18" s="4"/>
       <c r="G18" s="4"/>
     </row>
-    <row r="19" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A19" s="14"/>
+    <row r="19" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A19" s="15"/>
       <c r="B19" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C19" s="25">
+      <c r="C19" s="12">
         <v>10</v>
       </c>
       <c r="D19" s="1">
@@ -2218,12 +2219,12 @@
       <c r="F19" s="4"/>
       <c r="G19" s="4"/>
     </row>
-    <row r="20" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A20" s="14"/>
+    <row r="20" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A20" s="15"/>
       <c r="B20" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C20" s="25">
+      <c r="C20" s="12">
         <v>10</v>
       </c>
       <c r="D20" s="1">
@@ -2233,14 +2234,14 @@
       <c r="F20" s="4"/>
       <c r="G20" s="4"/>
     </row>
-    <row r="21" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A21" s="14" t="s">
+    <row r="21" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A21" s="15" t="s">
         <v>1</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C21" s="25">
+      <c r="C21" s="12">
         <v>10</v>
       </c>
       <c r="D21" s="1">
@@ -2250,12 +2251,12 @@
       <c r="F21" s="4"/>
       <c r="G21" s="4"/>
     </row>
-    <row r="22" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A22" s="14"/>
+    <row r="22" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A22" s="15"/>
       <c r="B22" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C22" s="25">
+      <c r="C22" s="12">
         <v>10</v>
       </c>
       <c r="D22" s="1">
@@ -2265,12 +2266,12 @@
       <c r="F22" s="4"/>
       <c r="G22" s="4"/>
     </row>
-    <row r="23" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A23" s="14"/>
+    <row r="23" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A23" s="15"/>
       <c r="B23" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C23" s="25">
+      <c r="C23" s="12">
         <v>10</v>
       </c>
       <c r="D23" s="1">
@@ -2280,12 +2281,12 @@
       <c r="F23" s="4"/>
       <c r="G23" s="4"/>
     </row>
-    <row r="24" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A24" s="14"/>
+    <row r="24" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A24" s="15"/>
       <c r="B24" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C24" s="25">
+      <c r="C24" s="12">
         <v>10</v>
       </c>
       <c r="D24" s="1">
@@ -2297,6 +2298,11 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A14:H14"/>
+    <mergeCell ref="A17:A20"/>
+    <mergeCell ref="A21:A24"/>
     <mergeCell ref="A15:D15"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="G1:H1"/>
@@ -2313,11 +2319,6 @@
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A14:H14"/>
-    <mergeCell ref="A17:A20"/>
-    <mergeCell ref="A21:A24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
